--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.47919981849119</v>
+        <v>2.799443333333333</v>
       </c>
       <c r="H2">
-        <v>2.47919981849119</v>
+        <v>8.39833</v>
       </c>
       <c r="I2">
-        <v>0.03060319486898595</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="J2">
-        <v>0.03060319486898595</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.41984219427448</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N2">
-        <v>2.41984219427448</v>
+        <v>0.859405</v>
       </c>
       <c r="O2">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937993</v>
       </c>
       <c r="P2">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937995</v>
       </c>
       <c r="Q2">
-        <v>5.999272328822614</v>
+        <v>0.801951865961111</v>
       </c>
       <c r="R2">
-        <v>5.999272328822614</v>
+        <v>7.21756679365</v>
       </c>
       <c r="S2">
-        <v>0.02597468303867932</v>
+        <v>0.002495982723075278</v>
       </c>
       <c r="T2">
-        <v>0.02597468303867932</v>
+        <v>0.002495982723075279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.47919981849119</v>
+        <v>2.799443333333333</v>
       </c>
       <c r="H3">
-        <v>2.47919981849119</v>
+        <v>8.39833</v>
       </c>
       <c r="I3">
-        <v>0.03060319486898595</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="J3">
-        <v>0.03060319486898595</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431199418564457</v>
+        <v>2.423946</v>
       </c>
       <c r="N3">
-        <v>0.431199418564457</v>
+        <v>7.271838</v>
       </c>
       <c r="O3">
-        <v>0.1512427656694524</v>
+        <v>0.647608861182233</v>
       </c>
       <c r="P3">
-        <v>0.1512427656694524</v>
+        <v>0.6476088611822332</v>
       </c>
       <c r="Q3">
-        <v>1.069029520238508</v>
+        <v>6.785699470059999</v>
       </c>
       <c r="R3">
-        <v>1.069029520238508</v>
+        <v>61.07129523054</v>
       </c>
       <c r="S3">
-        <v>0.004628511830306629</v>
+        <v>0.02111970725444032</v>
       </c>
       <c r="T3">
-        <v>0.004628511830306629</v>
+        <v>0.02111970725444032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.66993676765255</v>
+        <v>2.799443333333333</v>
       </c>
       <c r="H4">
-        <v>2.66993676765255</v>
+        <v>8.39833</v>
       </c>
       <c r="I4">
-        <v>0.03295764810037308</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="J4">
-        <v>0.03295764810037308</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.41984219427448</v>
+        <v>0.2710936666666667</v>
       </c>
       <c r="N4">
-        <v>2.41984219427448</v>
+        <v>0.813281</v>
       </c>
       <c r="O4">
-        <v>0.8487572343305475</v>
+        <v>0.0724284537459646</v>
       </c>
       <c r="P4">
-        <v>0.8487572343305475</v>
+        <v>0.07242845374596461</v>
       </c>
       <c r="Q4">
-        <v>6.460825646410459</v>
+        <v>0.7589113578588889</v>
       </c>
       <c r="R4">
-        <v>6.460825646410459</v>
+        <v>6.83020222073</v>
       </c>
       <c r="S4">
-        <v>0.02797304225171207</v>
+        <v>0.002362024103892094</v>
       </c>
       <c r="T4">
-        <v>0.02797304225171207</v>
+        <v>0.002362024103892095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.66993676765255</v>
+        <v>2.799443333333333</v>
       </c>
       <c r="H5">
-        <v>2.66993676765255</v>
+        <v>8.39833</v>
       </c>
       <c r="I5">
-        <v>0.03295764810037308</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="J5">
-        <v>0.03295764810037308</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.431199418564457</v>
+        <v>0.311266</v>
       </c>
       <c r="N5">
-        <v>0.431199418564457</v>
+        <v>0.933798</v>
       </c>
       <c r="O5">
-        <v>0.1512427656694524</v>
+        <v>0.08316134921518423</v>
       </c>
       <c r="P5">
-        <v>0.1512427656694524</v>
+        <v>0.08316134921518425</v>
       </c>
       <c r="Q5">
-        <v>1.151275181815645</v>
+        <v>0.8713715285933332</v>
       </c>
       <c r="R5">
-        <v>1.151275181815645</v>
+        <v>7.84234375734</v>
       </c>
       <c r="S5">
-        <v>0.004984605848660998</v>
+        <v>0.002712043419391613</v>
       </c>
       <c r="T5">
-        <v>0.004984605848660998</v>
+        <v>0.002712043419391613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3275453397133</v>
+        <v>2.799443333333333</v>
       </c>
       <c r="H6">
-        <v>12.3275453397133</v>
+        <v>8.39833</v>
       </c>
       <c r="I6">
-        <v>0.1521709825378669</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="J6">
-        <v>0.1521709825378669</v>
+        <v>0.03261182562555667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.41984219427448</v>
+        <v>0.4501426666666666</v>
       </c>
       <c r="N6">
-        <v>2.41984219427448</v>
+        <v>1.350428</v>
       </c>
       <c r="O6">
-        <v>0.8487572343305475</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="P6">
-        <v>0.8487572343305475</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="Q6">
-        <v>29.83071436486997</v>
+        <v>1.260148887248889</v>
       </c>
       <c r="R6">
-        <v>29.83071436486997</v>
+        <v>11.34133998524</v>
       </c>
       <c r="S6">
-        <v>0.129156222284202</v>
+        <v>0.003922068124757363</v>
       </c>
       <c r="T6">
-        <v>0.129156222284202</v>
+        <v>0.003922068124757364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3275453397133</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H7">
-        <v>12.3275453397133</v>
+        <v>8.371696</v>
       </c>
       <c r="I7">
-        <v>0.1521709825378669</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="J7">
-        <v>0.1521709825378669</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.431199418564457</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N7">
-        <v>0.431199418564457</v>
+        <v>0.859405</v>
       </c>
       <c r="O7">
-        <v>0.1512427656694524</v>
+        <v>0.07653612378937993</v>
       </c>
       <c r="P7">
-        <v>0.1512427656694524</v>
+        <v>0.07653612378937995</v>
       </c>
       <c r="Q7">
-        <v>5.315630382811356</v>
+        <v>0.7994086000977778</v>
       </c>
       <c r="R7">
-        <v>5.315630382811356</v>
+        <v>7.19467740088</v>
       </c>
       <c r="S7">
-        <v>0.02301476025366494</v>
+        <v>0.002488067101297331</v>
       </c>
       <c r="T7">
-        <v>0.02301476025366494</v>
+        <v>0.002488067101297332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.1416476500844</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H8">
-        <v>11.1416476500844</v>
+        <v>8.371696</v>
       </c>
       <c r="I8">
-        <v>0.1375322842692939</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="J8">
-        <v>0.1375322842692939</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41984219427448</v>
+        <v>2.423946</v>
       </c>
       <c r="N8">
-        <v>2.41984219427448</v>
+        <v>7.271838</v>
       </c>
       <c r="O8">
-        <v>0.8487572343305475</v>
+        <v>0.647608861182233</v>
       </c>
       <c r="P8">
-        <v>0.8487572343305475</v>
+        <v>0.6476088611822332</v>
       </c>
       <c r="Q8">
-        <v>26.96102909741334</v>
+        <v>6.764179677472</v>
       </c>
       <c r="R8">
-        <v>26.96102909741334</v>
+        <v>60.877617097248</v>
       </c>
       <c r="S8">
-        <v>0.1167315212275686</v>
+        <v>0.02105272938109946</v>
       </c>
       <c r="T8">
-        <v>0.1167315212275686</v>
+        <v>0.02105272938109947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.1416476500844</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H9">
-        <v>11.1416476500844</v>
+        <v>8.371696</v>
       </c>
       <c r="I9">
-        <v>0.1375322842692939</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="J9">
-        <v>0.1375322842692939</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.431199418564457</v>
+        <v>0.2710936666666667</v>
       </c>
       <c r="N9">
-        <v>0.431199418564457</v>
+        <v>0.813281</v>
       </c>
       <c r="O9">
-        <v>0.1512427656694524</v>
+        <v>0.0724284537459646</v>
       </c>
       <c r="P9">
-        <v>0.1512427656694524</v>
+        <v>0.07242845374596461</v>
       </c>
       <c r="Q9">
-        <v>4.804271988566441</v>
+        <v>0.7565045882862222</v>
       </c>
       <c r="R9">
-        <v>4.804271988566441</v>
+        <v>6.808541294576</v>
       </c>
       <c r="S9">
-        <v>0.02080076304172533</v>
+        <v>0.002354533311081731</v>
       </c>
       <c r="T9">
-        <v>0.02080076304172533</v>
+        <v>0.002354533311081732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.1350283585804</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H10">
-        <v>50.1350283585804</v>
+        <v>8.371696</v>
       </c>
       <c r="I10">
-        <v>0.6188658256491498</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="J10">
-        <v>0.6188658256491498</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.41984219427448</v>
+        <v>0.311266</v>
       </c>
       <c r="N10">
-        <v>2.41984219427448</v>
+        <v>0.933798</v>
       </c>
       <c r="O10">
-        <v>0.8487572343305475</v>
+        <v>0.08316134921518423</v>
       </c>
       <c r="P10">
-        <v>0.8487572343305475</v>
+        <v>0.08316134921518425</v>
       </c>
       <c r="Q10">
-        <v>121.3188570332405</v>
+        <v>0.8686081090453333</v>
       </c>
       <c r="R10">
-        <v>121.3188570332405</v>
+        <v>7.817472981408</v>
       </c>
       <c r="S10">
-        <v>0.5252668465996632</v>
+        <v>0.002703442594652399</v>
       </c>
       <c r="T10">
-        <v>0.5252668465996632</v>
+        <v>0.002703442594652401</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.1350283585804</v>
+        <v>2.790565333333333</v>
       </c>
       <c r="H11">
-        <v>50.1350283585804</v>
+        <v>8.371696</v>
       </c>
       <c r="I11">
-        <v>0.6188658256491498</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="J11">
-        <v>0.6188658256491498</v>
+        <v>0.03250840228261694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.431199418564457</v>
+        <v>0.4501426666666666</v>
       </c>
       <c r="N11">
-        <v>0.431199418564457</v>
+        <v>1.350428</v>
       </c>
       <c r="O11">
-        <v>0.1512427656694524</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="P11">
-        <v>0.1512427656694524</v>
+        <v>0.1202652120672381</v>
       </c>
       <c r="Q11">
-        <v>21.61819507793243</v>
+        <v>1.256152520654222</v>
       </c>
       <c r="R11">
-        <v>21.61819507793243</v>
+        <v>11.305372685888</v>
       </c>
       <c r="S11">
-        <v>0.09359897904948654</v>
+        <v>0.003909629894486013</v>
       </c>
       <c r="T11">
-        <v>0.09359897904948654</v>
+        <v>0.003909629894486014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,1233 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.25778580732565</v>
+        <v>15.29677933333333</v>
       </c>
       <c r="H12">
-        <v>2.25778580732565</v>
+        <v>45.890338</v>
       </c>
       <c r="I12">
-        <v>0.02787006457433039</v>
+        <v>0.1781982490273492</v>
       </c>
       <c r="J12">
-        <v>0.02787006457433039</v>
+        <v>0.1781982490273492</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.41984219427448</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N12">
-        <v>2.41984219427448</v>
+        <v>0.859405</v>
       </c>
       <c r="O12">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937993</v>
       </c>
       <c r="P12">
-        <v>0.8487572343305475</v>
+        <v>0.07653612378937995</v>
       </c>
       <c r="Q12">
-        <v>5.46348536220068</v>
+        <v>4.382042880987778</v>
       </c>
       <c r="R12">
-        <v>5.46348536220068</v>
+        <v>39.43838592889</v>
       </c>
       <c r="S12">
-        <v>0.02365491892872243</v>
+        <v>0.01363860324660795</v>
       </c>
       <c r="T12">
-        <v>0.02365491892872243</v>
+        <v>0.01363860324660795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.29677933333333</v>
+      </c>
+      <c r="H13">
+        <v>45.890338</v>
+      </c>
+      <c r="I13">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="J13">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.423946</v>
+      </c>
+      <c r="N13">
+        <v>7.271838</v>
+      </c>
+      <c r="O13">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P13">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q13">
+        <v>37.078567077916</v>
+      </c>
+      <c r="R13">
+        <v>333.707103701244</v>
+      </c>
+      <c r="S13">
+        <v>0.1154027651172695</v>
+      </c>
+      <c r="T13">
+        <v>0.1154027651172696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.29677933333333</v>
+      </c>
+      <c r="H14">
+        <v>45.890338</v>
+      </c>
+      <c r="I14">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="J14">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.813281</v>
+      </c>
+      <c r="O14">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P14">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q14">
+        <v>4.146859997664222</v>
+      </c>
+      <c r="R14">
+        <v>37.321739978978</v>
+      </c>
+      <c r="S14">
+        <v>0.01290662363728924</v>
+      </c>
+      <c r="T14">
+        <v>0.01290662363728924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.29677933333333</v>
+      </c>
+      <c r="H15">
+        <v>45.890338</v>
+      </c>
+      <c r="I15">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="J15">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.311266</v>
+      </c>
+      <c r="N15">
+        <v>0.933798</v>
+      </c>
+      <c r="O15">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P15">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q15">
+        <v>4.761367315969333</v>
+      </c>
+      <c r="R15">
+        <v>42.852305843724</v>
+      </c>
+      <c r="S15">
+        <v>0.01481920681689775</v>
+      </c>
+      <c r="T15">
+        <v>0.01481920681689775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.29677933333333</v>
+      </c>
+      <c r="H16">
+        <v>45.890338</v>
+      </c>
+      <c r="I16">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="J16">
+        <v>0.1781982490273492</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.350428</v>
+      </c>
+      <c r="O16">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P16">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q16">
+        <v>6.885733040518222</v>
+      </c>
+      <c r="R16">
+        <v>61.971597364664</v>
+      </c>
+      <c r="S16">
+        <v>0.02143105020928465</v>
+      </c>
+      <c r="T16">
+        <v>0.02143105020928466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.47259133333333</v>
+      </c>
+      <c r="H17">
+        <v>34.417774</v>
+      </c>
+      <c r="I17">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="J17">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.859405</v>
+      </c>
+      <c r="O17">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P17">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q17">
+        <v>3.286534118274445</v>
+      </c>
+      <c r="R17">
+        <v>29.57880706447</v>
+      </c>
+      <c r="S17">
+        <v>0.01022895852755364</v>
+      </c>
+      <c r="T17">
+        <v>0.01022895852755364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.47259133333333</v>
+      </c>
+      <c r="H18">
+        <v>34.417774</v>
+      </c>
+      <c r="I18">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="J18">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.423946</v>
+      </c>
+      <c r="N18">
+        <v>7.271838</v>
+      </c>
+      <c r="O18">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P18">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q18">
+        <v>27.808941872068</v>
+      </c>
+      <c r="R18">
+        <v>250.280476848612</v>
+      </c>
+      <c r="S18">
+        <v>0.08655212539034399</v>
+      </c>
+      <c r="T18">
+        <v>0.086552125390344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.47259133333333</v>
+      </c>
+      <c r="H19">
+        <v>34.417774</v>
+      </c>
+      <c r="I19">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="J19">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.813281</v>
+      </c>
+      <c r="O19">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P19">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q19">
+        <v>3.110146850721556</v>
+      </c>
+      <c r="R19">
+        <v>27.991321656494</v>
+      </c>
+      <c r="S19">
+        <v>0.009679973493576776</v>
+      </c>
+      <c r="T19">
+        <v>0.009679973493576778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.47259133333333</v>
+      </c>
+      <c r="H20">
+        <v>34.417774</v>
+      </c>
+      <c r="I20">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="J20">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.311266</v>
+      </c>
+      <c r="N20">
+        <v>0.933798</v>
+      </c>
+      <c r="O20">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P20">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q20">
+        <v>3.571027613961333</v>
+      </c>
+      <c r="R20">
+        <v>32.139248525652</v>
+      </c>
+      <c r="S20">
+        <v>0.01111441173266682</v>
+      </c>
+      <c r="T20">
+        <v>0.01111441173266682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.25778580732565</v>
-      </c>
-      <c r="H13">
-        <v>2.25778580732565</v>
-      </c>
-      <c r="I13">
-        <v>0.02787006457433039</v>
-      </c>
-      <c r="J13">
-        <v>0.02787006457433039</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.431199418564457</v>
-      </c>
-      <c r="N13">
-        <v>0.431199418564457</v>
-      </c>
-      <c r="O13">
-        <v>0.1512427656694524</v>
-      </c>
-      <c r="P13">
-        <v>0.1512427656694524</v>
-      </c>
-      <c r="Q13">
-        <v>0.9735559273619034</v>
-      </c>
-      <c r="R13">
-        <v>0.9735559273619034</v>
-      </c>
-      <c r="S13">
-        <v>0.004215145645607957</v>
-      </c>
-      <c r="T13">
-        <v>0.004215145645607957</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.47259133333333</v>
+      </c>
+      <c r="H21">
+        <v>34.417774</v>
+      </c>
+      <c r="I21">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="J21">
+        <v>0.1336487663747219</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.350428</v>
+      </c>
+      <c r="O21">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P21">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q21">
+        <v>5.164302856363555</v>
+      </c>
+      <c r="R21">
+        <v>46.478725707272</v>
+      </c>
+      <c r="S21">
+        <v>0.01607329723058069</v>
+      </c>
+      <c r="T21">
+        <v>0.0160732972305807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>51.21439733333333</v>
+      </c>
+      <c r="H22">
+        <v>153.643192</v>
+      </c>
+      <c r="I22">
+        <v>0.596616825732964</v>
+      </c>
+      <c r="J22">
+        <v>0.5966168257329642</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.859405</v>
+      </c>
+      <c r="O22">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P22">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q22">
+        <v>14.67130304675111</v>
+      </c>
+      <c r="R22">
+        <v>132.04172742076</v>
+      </c>
+      <c r="S22">
+        <v>0.04566273922912505</v>
+      </c>
+      <c r="T22">
+        <v>0.04566273922912507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>51.21439733333333</v>
+      </c>
+      <c r="H23">
+        <v>153.643192</v>
+      </c>
+      <c r="I23">
+        <v>0.596616825732964</v>
+      </c>
+      <c r="J23">
+        <v>0.5966168257329642</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.423946</v>
+      </c>
+      <c r="N23">
+        <v>7.271838</v>
+      </c>
+      <c r="O23">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P23">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q23">
+        <v>124.140933558544</v>
+      </c>
+      <c r="R23">
+        <v>1117.268402026896</v>
+      </c>
+      <c r="S23">
+        <v>0.3863743430750836</v>
+      </c>
+      <c r="T23">
+        <v>0.3863743430750838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>51.21439733333333</v>
+      </c>
+      <c r="H24">
+        <v>153.643192</v>
+      </c>
+      <c r="I24">
+        <v>0.596616825732964</v>
+      </c>
+      <c r="J24">
+        <v>0.5966168257329642</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.813281</v>
+      </c>
+      <c r="O24">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P24">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q24">
+        <v>13.88389875921689</v>
+      </c>
+      <c r="R24">
+        <v>124.955088832952</v>
+      </c>
+      <c r="S24">
+        <v>0.04321203416666421</v>
+      </c>
+      <c r="T24">
+        <v>0.04321203416666423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>51.21439733333333</v>
+      </c>
+      <c r="H25">
+        <v>153.643192</v>
+      </c>
+      <c r="I25">
+        <v>0.596616825732964</v>
+      </c>
+      <c r="J25">
+        <v>0.5966168257329642</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.311266</v>
+      </c>
+      <c r="N25">
+        <v>0.933798</v>
+      </c>
+      <c r="O25">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P25">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q25">
+        <v>15.94130060035733</v>
+      </c>
+      <c r="R25">
+        <v>143.471705403216</v>
+      </c>
+      <c r="S25">
+        <v>0.04961546019243374</v>
+      </c>
+      <c r="T25">
+        <v>0.04961546019243376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>51.21439733333333</v>
+      </c>
+      <c r="H26">
+        <v>153.643192</v>
+      </c>
+      <c r="I26">
+        <v>0.596616825732964</v>
+      </c>
+      <c r="J26">
+        <v>0.5966168257329642</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N26">
+        <v>1.350428</v>
+      </c>
+      <c r="O26">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P26">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q26">
+        <v>23.05378538735289</v>
+      </c>
+      <c r="R26">
+        <v>207.484068486176</v>
+      </c>
+      <c r="S26">
+        <v>0.07175224906965735</v>
+      </c>
+      <c r="T26">
+        <v>0.07175224906965738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.267579333333333</v>
+      </c>
+      <c r="H27">
+        <v>6.802738000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.02641593095679119</v>
+      </c>
+      <c r="J27">
+        <v>0.0264159309567912</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.859405</v>
+      </c>
+      <c r="O27">
+        <v>0.07653612378937993</v>
+      </c>
+      <c r="P27">
+        <v>0.07653612378937995</v>
+      </c>
+      <c r="Q27">
+        <v>0.6495896723211111</v>
+      </c>
+      <c r="R27">
+        <v>5.84630705089</v>
+      </c>
+      <c r="S27">
+        <v>0.002021772961720684</v>
+      </c>
+      <c r="T27">
+        <v>0.002021772961720685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.267579333333333</v>
+      </c>
+      <c r="H28">
+        <v>6.802738000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.02641593095679119</v>
+      </c>
+      <c r="J28">
+        <v>0.0264159309567912</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.423946</v>
+      </c>
+      <c r="N28">
+        <v>7.271838</v>
+      </c>
+      <c r="O28">
+        <v>0.647608861182233</v>
+      </c>
+      <c r="P28">
+        <v>0.6476088611822332</v>
+      </c>
+      <c r="Q28">
+        <v>5.496489854716</v>
+      </c>
+      <c r="R28">
+        <v>49.468408692444</v>
+      </c>
+      <c r="S28">
+        <v>0.01710719096399604</v>
+      </c>
+      <c r="T28">
+        <v>0.01710719096399604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.267579333333333</v>
+      </c>
+      <c r="H29">
+        <v>6.802738000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.02641593095679119</v>
+      </c>
+      <c r="J29">
+        <v>0.0264159309567912</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.2710936666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.813281</v>
+      </c>
+      <c r="O29">
+        <v>0.0724284537459646</v>
+      </c>
+      <c r="P29">
+        <v>0.07242845374596461</v>
+      </c>
+      <c r="Q29">
+        <v>0.614726395930889</v>
+      </c>
+      <c r="R29">
+        <v>5.532537563378001</v>
+      </c>
+      <c r="S29">
+        <v>0.001913265033460545</v>
+      </c>
+      <c r="T29">
+        <v>0.001913265033460546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.267579333333333</v>
+      </c>
+      <c r="H30">
+        <v>6.802738000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.02641593095679119</v>
+      </c>
+      <c r="J30">
+        <v>0.0264159309567912</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.311266</v>
+      </c>
+      <c r="N30">
+        <v>0.933798</v>
+      </c>
+      <c r="O30">
+        <v>0.08316134921518423</v>
+      </c>
+      <c r="P30">
+        <v>0.08316134921518425</v>
+      </c>
+      <c r="Q30">
+        <v>0.7058203487693333</v>
+      </c>
+      <c r="R30">
+        <v>6.352383138924001</v>
+      </c>
+      <c r="S30">
+        <v>0.002196784459141908</v>
+      </c>
+      <c r="T30">
+        <v>0.002196784459141909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.267579333333333</v>
+      </c>
+      <c r="H31">
+        <v>6.802738000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.02641593095679119</v>
+      </c>
+      <c r="J31">
+        <v>0.0264159309567912</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4501426666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.350428</v>
+      </c>
+      <c r="O31">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="P31">
+        <v>0.1202652120672381</v>
+      </c>
+      <c r="Q31">
+        <v>1.020734207984889</v>
+      </c>
+      <c r="R31">
+        <v>9.186607871864</v>
+      </c>
+      <c r="S31">
+        <v>0.003176917538472013</v>
+      </c>
+      <c r="T31">
+        <v>0.003176917538472014</v>
       </c>
     </row>
   </sheetData>
